--- a/DataGenerator/excel/stage.xlsx
+++ b/DataGenerator/excel/stage.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="17860" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +44,6 @@
   </si>
   <si>
     <t>KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0.5;1:1;0.5;1:1;0.5;1:2;1;1#1;0.5;1:1;0.5;1:1;0.5;1:2;1;1#1;0.5;1:1;0.5;1:1;0.5;1:2;1;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,25 +91,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -124,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -426,15 +427,15 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="99.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -450,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,48 +459,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
+      <c r="B8" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -509,10 +515,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -522,9 +533,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>